--- a/data/账单模板.xlsx
+++ b/data/账单模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonzhang/program/datagovernance/static/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonzhang/program/datagovernance/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5B5FEA-7736-754D-8AFD-CE2ECE8BE6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA4A992-682D-8746-BCC0-0271CA832289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="27240" windowHeight="15080" xr2:uid="{99051775-2409-4A46-9F55-E3B15BC5EBEC}"/>
+    <workbookView xWindow="280" yWindow="7920" windowWidth="27240" windowHeight="15080" xr2:uid="{99051775-2409-4A46-9F55-E3B15BC5EBEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +624,7 @@
         <v>5233</v>
       </c>
       <c r="F9" s="1">
-        <v>63.6</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
